--- a/literature_research/FS_scopus/FS_peasants.xlsx
+++ b/literature_research/FS_scopus/FS_peasants.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>How trust is lost: the Food Systems Summit 2021 and the delegitimation of UN food governance</t>
+          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Social movements see participation formats of international organizations (IOs) with suspicion. They increasingly retreat from cooperation to contest IOs from the outside, because they fear co-optation without real policy impact. However, the Food and Agricultural Organization (FAO) was an exception to this trend because its opening up was seen as long-term dialogue facilitating discussions about the nature of food production, and because it created credible institutional mechanisms that were trusted by activists to give influence to farmers and peasant movements. Therefore, the food sovereignty movement participated within the FAO framework in a remarkably institutionalized way throughout the 2010s. But in 2019, when the United Nations (UN) announced to hold a food systems summit (United Nations Food Systems Summit (UNFSS)), this changed dramatically. The food sovereignty movement, many non-governmental organizations (NGOs), and eventually scientists, decided to boycott the summit, instead organizing an alternative Peoples’ Summit, and withdrawing from long-held institutional roles in the FAO. How can this be explained? This article traces the process from the announcement of the UNFSS to its implementation, stressing how institutional trust was damaged by several decisions in the process that undermined the good faith of activists. As we show in detail, the circumvention of established institutional mechanisms, and the feeling of betrayal on the side of the movement, was decisive for losing institutional trust. Importantly, a mixture of substantive and institutional changes in the context of UNFSS not only undermined the movement’s trust into the integrity and ability of the summit organizers, but thereby also provoked movement efforts to delegitimize UN food governance at large. © The Author(s) 2023.</t>
+          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -512,15 +512,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>‘Our struggle is for humanity’: a conversation with Morgan Ody, general coordinator of La Via Campesina International, on land, politics, peasant life and a vision for hope in our changing world</t>
+          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A new generation of activists and peasant leaders have taken up the banner of food sovereignty amid an even more challenging and violent situation for rural people around the world. In this interview Morgan Ody, the new General Coordinator of La Via Campesina International, discusses her vision for rural movements. Originally from a small dairy farm, Ody is a second-generation militant in Confédéracion Paysanne. Ody speaks about land reform, climate politics, the perils and potential of state policies, rising populism, and the power of the peasantry: in short, about where the movement has been and where we are headed. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -548,15 +548,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
+          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -584,15 +584,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parity as radical pragmatism: Centering farm justice and agrarian expertise in agricultural policy</t>
+          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rather than treating symptoms of a destructive agri-food system, agricultural policy, research, and advocacy need both to address the root causes of dysfunction and to learn from longstanding interventions to counter it. Specifically, this paper focuses on agricultural parity policies – farmer-led, government-enacted programs to secure a price floor and manage supply to prevent the economic and ecological devastation of unfettered corporate agro-capitalism. Though these programs remain off the radar in dominant policy, scholarship, and civil society activism, but in the past few years, vast swaths of humanity have mobilized in India to call for agri-food systems transformation through farmgate pricing and market protections. This paper asks what constitutes true farm justice and how it could be updated and expanded as an avenue for radically reimagining agriculture and thus food systems at large. Parity refers to both a pricing ratio to ensure livelihood, but also a broader farm justice movement built on principles of fair farmgate prices and cooperatively coordinated supply management. The programs and principles are now mostly considered “radical,” deemed inefficient, irrelevant, obsolete, and grievous government overeach—but from the vantage, we argue, of a system that profits from commodity crop overproduction and agroindustry consolidation. However, by examining parity through a producer-centric lens cognizant of farmers‘ ability, desire, and need to care for the land, ideas of price protection and supply coordination become foundational, so that farmers can make a dignified livelihood stewarding land and water while producing nourishing food. This paradox—that an agricultural governance principle can seem both radical and common sense, far-fetched and pragmatic—deserves attention and analysis. As overall numbers of farmers decline in Global North contexts, their voices dwindle from these conversations, leaving space for worldviews favoring de-agrarianization altogether. In Global South contexts maintaining robust farming populations, such policies for deliberate de-agrarianization bely an aggression toward rural and peasant ways of life and land tenure. Alongside the history of parity programs, principles, and movements in U.S., the paper will examine a vast version of a parity program in India – the Minimum Support Price (MSP) system, which Indian farmers defended and now struggle to expand into a legal right. From East India to the plains of the United States and beyond, parity principles and programs have the potential to offer a pragmatic direction for countering global agro-industrial corporate capture, along with its de-agrarianization, and environmental destruction. The paper explores what and why of parity programs and movements, even as it addresses the complexity of how international parity agreements would unfold. It ends with the need for global supply coordination grounded in food sovereignty and solidarity, and thus the methodological urgency of centering farm justice and agrarian expertise. Copyright © 2023 Graddy-Lovelace, Krikorian, Jewett, Vivekanandan, Stahl, Singh, Wilson, Naylor, Naylor and Pennick.</t>
+          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
+          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
+          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
+          <t>Peasants' Rights as New Human Rights: Promises and Concerns for Agrobiodiversity Conservation</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
+          <t>Agrobiodiversity conservation is vital for food security, maintaining ecological balance, and preserving socio-cultural norms. There is substantial evidence to support that agrobiodiversity hotspots coincide with localized, small-scale peasant food systems. Preserving such food systems is necessary for protecting agrobiodiversity. The current legal framework over agrobiodiversity is fragmented and inadequate. A major portion of this framework is situated within intellectual property law and farmers' rights law, neither of which are designed to foster sustainable management of agrobiodiversity. In this context, the 2018 Peasants' Rights Declaration has the potential to fill the gaps in the existing framework. The paper critically analyses the Declaration by exploring some of its legal innovations in improving agrobiodiversity conservation. While some of these innovations are commendable, they are unlikely to be adopted by states owing to their radical nature. Their adoption would require a massive overhaul of the existing agricultural model and power structures embedded within it.  Copyright © 2022 The Author(s).</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -692,15 +692,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
+          <t>New rurality and agritourism in Empordà, Catalonia</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Let’s Reclaim Our Food Sovereignty and Reject the Industrial Food System!</t>
+          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>African food systems are a rich and varied tapestry of production systems, crops, seed, territorial markets, cultures, biodiversity and ecologies. As the UN Food Systems Summit worked to retrench the many pathologies that have systematically eroded African food systems, African civil society organizations mobilized to push back. In the African regional people’s countermobilization, participatory dialogues opened space for continent-wide articulations of a future built on peoples’ choices and control of natural resources, territorially-embedded solutions, the human rights of all, family farming, and peasant agroecology. © 2021, Society for International Development.</t>
+          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,15 +764,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
+          <t>Does the Arab region have an agrarian question?</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
+          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,15 +800,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Relevance of the Obstacles to the Achievement of Food Sovereignty in Ecuador, Analysis through the Neutrosophic Soft Set</t>
+          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>One of the elements addressed in the Sustainable Development Goals until 2030, is the achievement of food sovereignty. This important issue takes relevance in the debates at the level of states, among which is Ecuador, which recognizes it as a right to its citizens from its Magna Carta. Despite being a widely addressed topic and to which substantial resources are destined, obstacles persist in its implementation. Therefore, it is proposed as the objective of this investigation: the analysis of the relevance of obstacles to the achievement of food sovereignty in Ecuador through Neutrosophic Soft Sets. To meet the proposed objective, empirical methods such as the interview and a neutrosophic soft set model were used. As a result, it was obtained that from the four initial statements, only three were true and that their relevance in the subject addressed was given by the following hierarchy: first of all the need to guarantee vulnerable groups the right to healthy eating, second, the fact that the allocations of resources to peasant producers are scarce in order to increase food production in the area and finally, the insufficient legal framework to guarantee the right to food sovereignty of Ecuadorians, in correspondence with the international pronouncements and The Constitution. © 2022, Neutrosophic Sets and Systems. All Rights Reserved.</t>
+          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,15 +836,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Peasants' Rights as New Human Rights: Promises and Concerns for Agrobiodiversity Conservation</t>
+          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Agrobiodiversity conservation is vital for food security, maintaining ecological balance, and preserving socio-cultural norms. There is substantial evidence to support that agrobiodiversity hotspots coincide with localized, small-scale peasant food systems. Preserving such food systems is necessary for protecting agrobiodiversity. The current legal framework over agrobiodiversity is fragmented and inadequate. A major portion of this framework is situated within intellectual property law and farmers' rights law, neither of which are designed to foster sustainable management of agrobiodiversity. In this context, the 2018 Peasants' Rights Declaration has the potential to fill the gaps in the existing framework. The paper critically analyses the Declaration by exploring some of its legal innovations in improving agrobiodiversity conservation. While some of these innovations are commendable, they are unlikely to be adopted by states owing to their radical nature. Their adoption would require a massive overhaul of the existing agricultural model and power structures embedded within it.  Copyright © 2022 The Author(s).</t>
+          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Subversive Future Seeks Like-Minded Model: On the Mismatch between Visions of Food Sovereignty Futures and Quantified Scenarios of Global Food Futures</t>
+          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Will we, by 2050, be able to feed a rapidly growing population with healthy and sustainably grown food in a world threatened by systemic environmental crises? There are too many uncertainties for us to predict the long-Term evolution of the global agri-food system, but we can explore a wide range of futures to inform policymaking and public debate on the future of food. This is typically done by creating scenarios (story lines that vividly describe what different futures could look like) and quantifying them with computer simulation models to get numerical estimates of how different aspects of the global agri-food system might evolve under different hypotheses. Among the many scenarios produced over the last twenty years, one would expect to see the future advocated by the food sovereignty movement, which claims to represent roughly two hundred million self-described peasants (small farmers) worldwide. This movement defends a vision of the future based on relocalized, sustainable, and just agri-food systems, self-governed through direct and participatory democratic processes. Yet, food sovereignty is conspicuously absent from quantified scenarios of global food futures. As part of the roundtable, Ethics and the Future of the Global Food System, this essay identifies seven obstacles that undermine the creation of food sovereignty scenarios by examining two attempts at crafting such scenarios.  Copyright © The Author(s), 2021. Published by Cambridge University Press on behalf of the Carnegie Council for Ethics in International Affairs.</t>
+          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,15 +908,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>New rurality and agritourism in Empordà, Catalonia</t>
+          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
+          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,15 +944,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
+          <t>Extrafamilial farm succession: an adaptive strategy contributing to the renewal of peasantries in Austria</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
+          <t>This article examines extrafamilial farm transmission, a process that brings together elderly farmers without successors and young people who aspire to farm but face various economic, social and cultural barriers to enter into the sector. First-hand accounts of the process from Austrian smallholders are systematically analysed to produce a stage-by-stage model. The multigenerational non-familial agrarian partnership this represents offers an alternative mechanism for maintaining small-scale food production and improving food security and food sovereignty. It is recommended as an adaptive strategy for the survival and re-generation of peasantry in the twenty-first century. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,15 +980,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Does the Arab region have an agrarian question?</t>
+          <t>Heritage and patrimony of the peasantry: An analytical framework to address rural development; [Herencia y patrimonios de campesinado: Un marco analítico para abordar el desarrollo rural]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The term “rural development” is exceptionally multifaceted, which makes it difficult to define. This and other features make it a ‘wicked problem’, which means the consequences of rural developmental problems can create other complications. To date, the important discussion of rural development has dealt with productivity and economic concerns. This discussion has many crucial aspects such as the environment, infrastructure, and respect for fundamental rights. This paper describes the ‘Heritage and Patrimony of the Peasantry’ as an alternative analytical framework for addressing rural development. This analytical framework takes important topics from other rural development perspectives (primarily focused on food sovereignty principles). The heritage and patrimony of the peasantry framework moves away from the market point of view, which converts everything into an asset that can be marketed, and utilizes other sources of heritage. The peasantry has seven kinds of ‘ heritages’ or ‘patrimonies’: natural, cultural, economic, physical, social, institutional, and human. These heritages or patrimonies are the bases of construction for a decent standard of living which will accomplish full rights for all rural inhabit-ants, i.e. rural development. © 2019, Universidad Nacional de Colombia. All rights reserved.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,15 +1016,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
+          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,15 +1052,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
+          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,15 +1088,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>‘Keeping seeds in our hands’: the rise of seed activism</t>
+          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Semantic innovations like seed commons, peasant seeds and seed sovereignty are a powerful expression of what may be termed as seed activism. In this opening paper of the JPS Special Forum on Seed Activism, we explore the surge of mobilizations the world over in response to processes of seed enclosures and loss of agrobiodiversity. A historical overview of the evolution of seed activism over the past three decades traces a paradigm shift from farmers’ rights to seed sovereignty. Some of the main threats to peasant seed systems–from seed and intellectual property laws to biopiracy, corporate concentration and new genome editing technologies–are analyzed along with strategies by peasants and other activists to counter these developments. We take stock of what has been achieved so far and of the challenges ahead, and suggest some avenues for future research. © 2020, © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
+          <t>The Developmental State and Food Sovereignty in Tanzania</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
+          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,15 +1160,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mobilising for food sovereignty: The pitfalls of international human rights strategies and an exploration of alternatives</t>
+          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>This article considers the role played by the language of human rights in a global campaign for food sovereignty. Led initially by the international peasants’ movement, Vía Campesina, the campaign opposes the globalisation of agricultural markets and neoliberal interventions in food production. Alongside other strategies, the campaign makes creative use of human rights and also seeks their institutionalisation in a UN Declaration on the rights of peasants. An examination of how the campaign employs human rights reveals a more complicated process than that suggested by the theoretical polarisation of ‘top down’ and ‘bottom up’ accounts of rights development in the sociology of human rights. It demonstrates both wariness of state power and attempts to harness the power of the state against international forces. It also shows that a desire for legal reform co-exists with the struggle for more radical social and political transformations. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1196,15 +1196,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extrafamilial farm succession: an adaptive strategy contributing to the renewal of peasantries in Austria</t>
+          <t>The Class Dynamics of Food Sovereignty in Mexico and Ecuador</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>This article examines extrafamilial farm transmission, a process that brings together elderly farmers without successors and young people who aspire to farm but face various economic, social and cultural barriers to enter into the sector. First-hand accounts of the process from Austrian smallholders are systematically analysed to produce a stage-by-stage model. The multigenerational non-familial agrarian partnership this represents offers an alternative mechanism for maintaining small-scale food production and improving food security and food sovereignty. It is recommended as an adaptive strategy for the survival and re-generation of peasantry in the twenty-first century. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This paper examines the class dynamics of food sovereignty in Mexico and Ecuador. It argues that the nature of contemporary demands for food sovereignty is heavily influenced by the outcomes of peasant movements’ historical and ongoing internal class dynamics. Processes of class differentiation within peasant organizations in both countries have led to the interests of certain classes predominating over or at the expense of others. Despite La Vía Campesina's projection of ‘unity in diversity’, incorporating sometimes conflicting class interests into the movement is particularly challenging. As such, class analysis must be brought back into debates around food sovereignty in order to gauge (and potentially further) the movement's transformative potential. © 2016 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1232,15 +1232,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Heritage and patrimony of the peasantry: An analytical framework to address rural development; [Herencia y patrimonios de campesinado: Un marco analítico para abordar el desarrollo rural]</t>
+          <t>Peasant activism and the rise of food sovereignty: Decolonising and democratising norm diffusion?</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The term “rural development” is exceptionally multifaceted, which makes it difficult to define. This and other features make it a ‘wicked problem’, which means the consequences of rural developmental problems can create other complications. To date, the important discussion of rural development has dealt with productivity and economic concerns. This discussion has many crucial aspects such as the environment, infrastructure, and respect for fundamental rights. This paper describes the ‘Heritage and Patrimony of the Peasantry’ as an alternative analytical framework for addressing rural development. This analytical framework takes important topics from other rural development perspectives (primarily focused on food sovereignty principles). The heritage and patrimony of the peasantry framework moves away from the market point of view, which converts everything into an asset that can be marketed, and utilizes other sources of heritage. The peasantry has seven kinds of ‘ heritages’ or ‘patrimonies’: natural, cultural, economic, physical, social, institutional, and human. These heritages or patrimonies are the bases of construction for a decent standard of living which will accomplish full rights for all rural inhabit-ants, i.e. rural development. © 2019, Universidad Nacional de Colombia. All rights reserved.</t>
+          <t>‘Food sovereignty’ emerged from grassroots peasant mobilisations, and has been spread globally by a democratically organised social movement, la Vía Campesina. This process has seen food sovereignty influence global political discourse, transform national constitutions and be incorporated into a proposed United Nations declaration on the rights of peasants and other people working in rural areas. By examining the role of grassroots actors in the global South in the construction of this emerging global norm, I militate against tendencies of West-centrism and elitism in existing literature on the contemporary diffusion of norms. By also discussing the potential marginalisation of grassroots peasant voices in recent United Nations discussions, I suggest that these elitist and West-centric tendencies may also exist in the norm diffusion process itself. © 2015, © The Author(s) 2015.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1268,15 +1268,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
+          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
+          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
+          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1329,294 +1329,6 @@
         </is>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>The Evolution of Food Security Governance and Food Sovereignty Movement in China: An Analysis from the World Society Theory</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Originating in a 1983 Mexican Government Program, the term ‘food sovereignty’ was coined in 1996 by La Via Campesina—a global peasant network—to address concerns within the civil society for food security. Rather than to accept the neoliberal framework of mainstream food security definition and governance, the food sovereignty movement seeks to view food security as the right of peoples to define their own food and agriculture systems with limited corporation intervention. As a result, food production should be geared toward the domestic and local markets and not toward international trade that only benefits corporations. This food sovereignty movement was inducted into China in 2013 just as China’s agricultural systems were shifting toward a more corporate-centric structure that increasingly exploits the small-scale farmers. A question was hence raised: How have the global civil society networks influenced the Chinese civil society and promoted China’s local food sovereignty movement? Through the world society theory, the author has identified social forums, such as international conferences and social media channels, as an expedient means for interactions. However, as the Chinese government continues to develop a corporate-centric food security governance system and tighten its civil society space, the impacts of China’s food sovereignty movement remain unclear. © 2017, Springer Science+Business Media B.V.</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>The Developmental State and Food Sovereignty in Tanzania</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>The Class Dynamics of Food Sovereignty in Mexico and Ecuador</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>This paper examines the class dynamics of food sovereignty in Mexico and Ecuador. It argues that the nature of contemporary demands for food sovereignty is heavily influenced by the outcomes of peasant movements’ historical and ongoing internal class dynamics. Processes of class differentiation within peasant organizations in both countries have led to the interests of certain classes predominating over or at the expense of others. Despite La Vía Campesina's projection of ‘unity in diversity’, incorporating sometimes conflicting class interests into the movement is particularly challenging. As such, class analysis must be brought back into debates around food sovereignty in order to gauge (and potentially further) the movement's transformative potential. © 2016 John Wiley &amp; Sons Ltd</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Peasant activism and the rise of food sovereignty: Decolonising and democratising norm diffusion?</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>‘Food sovereignty’ emerged from grassroots peasant mobilisations, and has been spread globally by a democratically organised social movement, la Vía Campesina. This process has seen food sovereignty influence global political discourse, transform national constitutions and be incorporated into a proposed United Nations declaration on the rights of peasants and other people working in rural areas. By examining the role of grassroots actors in the global South in the construction of this emerging global norm, I militate against tendencies of West-centrism and elitism in existing literature on the contemporary diffusion of norms. By also discussing the potential marginalisation of grassroots peasant voices in recent United Nations discussions, I suggest that these elitist and West-centric tendencies may also exist in the norm diffusion process itself. © 2015, © The Author(s) 2015.</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
         <is>
           <t>_</t>
         </is>
